--- a/biology/Botanique/Mairac/Mairac.xlsx
+++ b/biology/Botanique/Mairac/Mairac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mairac est un cultivar de pommier domestique, dont le fruit est une pomme bicolore d'un rouge flamboyant moucheté de grains de couleur rouille sur un fond jaune vanille.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa couleur braise tirant sur le rouge sang lui vient de son grand-parent, la Franc-Roseau. Comme sa robe est mat, elle évoque un côté naturel. La forme du fruit est ronde, très légèrement aplatie. C'est un fruit de calibre moyen à gros (65-85). Les principales caractéristiques de Mairac résident dans sa qualité gustative résultant d'un bon équilibre entre sucre, acidité, fermeté et jutosité. La Mairac a du "crunch".
 </t>
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété Mairac est une obtention du Centre des Fougères (Conthey, Valais) de la station de recherche Agroscope Changins - Wädenswil ACW Changins en Suisse au bord du lac Léman, en Suisse romande, région très propice à la culture des pommes. Cette hybridation, Gala x Maigold, a été réalisée en 1986 dans le cadre d'un programme de sélection dirigé par Ch. Rapillard. La Mairac, variété 100 % suisse a été officiellement lancée le 24 janvier 2002 à Martigny.
 </t>
@@ -573,7 +589,9 @@
           <t>Valeur analytique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sucre en % Brix 14 à 15,3 
 Acide malique (g/l)6,5
@@ -606,9 +624,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre est de vigueur moyenne. La végétation est équilibrée et les rameaux à fruits sont souvent à port pleureur (port de type 3). Elle est peu sensible à la tavelure du pommier et à l'oïdium. Arbre exigeant en fumure. Variété attirante de par sa bonne conservation du fait de sa sensibilité aux maladies, mais nécessite de très nombreux traitements fongicides[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est de vigueur moyenne. La végétation est équilibrée et les rameaux à fruits sont souvent à port pleureur (port de type 3). Elle est peu sensible à la tavelure du pommier et à l'oïdium. Arbre exigeant en fumure. Variété attirante de par sa bonne conservation du fait de sa sensibilité aux maladies, mais nécessite de très nombreux traitements fongicides.
 Floraison mi-précoce. La variété est pollinisée par Braeburn, Elstar, Gala, Golden Delicious, Idared, Pink Lady.
 </t>
         </is>
@@ -638,7 +658,9 @@
           <t>Récolte, conservation et consommation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mairac se récolte de mi-septembre à mi-novembre. Elle se conserve en réfrigérateur sous Ultra Low Oxygen (ULO) avec 3 ° de froid, 90-92 % d'humidité, 1,5 % de CO2 et 1 % d'oxygène.
 Elle se consomme depuis le début du mois de mars. C'est à ce moment que ses qualités gustatives sont les plus équilibrées.
